--- a/1er_cuatrimestre/sist_contable/7_tp_final/Libro1.xlsx
+++ b/1er_cuatrimestre/sist_contable/7_tp_final/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORIOS\repos_facu\3er_anho\1er_cuatrimestre\sist_contable\7_tp_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959EDE2E-DC91-44ED-9783-CEF497F410D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268B600-8AF8-448C-81D8-3DE443367EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{A27647EE-2D9A-4584-911B-0962B084004A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A27647EE-2D9A-4584-911B-0962B084004A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="23">
   <si>
     <t>Fecha</t>
   </si>
@@ -96,14 +96,22 @@
     <t>Saldo</t>
   </si>
   <si>
-    <t>Clientes</t>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>IVA Soportado</t>
+  </si>
+  <si>
+    <t>Intereses Pasivos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -256,15 +264,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -287,9 +292,6 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -312,24 +314,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -359,6 +349,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -674,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8E6860-0237-4D2E-900A-CBC3F787B7AE}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,11 +704,18 @@
     <col min="6" max="6" width="6.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="2"/>
+    <col min="9" max="9" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="2"/>
+    <col min="13" max="13" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,851 +728,1069 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="47">
         <v>45264</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>5000</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="28" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
+      <c r="M2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="47"/>
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>6000</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9">
         <v>45264</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>5000</v>
       </c>
-      <c r="J3" s="11">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="9">
+        <v>45268</v>
+      </c>
+      <c r="O3" s="25">
+        <v>40</v>
+      </c>
+      <c r="P3" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="48"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>8000</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9">
         <v>45264</v>
       </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
         <v>1250</v>
       </c>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="K4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="29">
+        <v>40</v>
+      </c>
+      <c r="P4" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="18">
+        <f>O4-P4</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4">
         <v>19000</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="10">
+      <c r="E5" s="5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9">
         <v>45268</v>
       </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
         <v>500</v>
       </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="K5" s="12"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="42">
         <v>45266</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>2000</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="10">
+      <c r="D6" s="14"/>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9">
         <v>45275</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <v>1250</v>
       </c>
-      <c r="J6" s="12">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15" t="s">
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="M6" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>420</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10">
+      <c r="D7" s="14"/>
+      <c r="E7" s="5">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9">
         <v>45282</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12">
+      <c r="I7" s="12"/>
+      <c r="J7" s="11">
         <v>700</v>
       </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15" t="s">
+      <c r="K7" s="12"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9">
+        <v>45275</v>
+      </c>
+      <c r="O7" s="25">
+        <v>1000</v>
+      </c>
+      <c r="P7" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
         <v>1210</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="17">
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="15">
         <f>SUM(I3:I7)</f>
         <v>6250</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="16">
         <f>SUM(J3:J7)</f>
         <v>2450</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="15">
         <f>I8-J8</f>
         <v>3800</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15" t="s">
+      <c r="M8" s="8"/>
+      <c r="N8" s="9">
+        <v>45282</v>
+      </c>
+      <c r="O8" s="25">
+        <v>4000</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
         <v>1210</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="19">
+        <f>SUM(O7:O8)</f>
+        <v>5000</v>
+      </c>
+      <c r="P9" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="18">
+        <f>O9-P9</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="47">
         <v>45268</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>3000</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="41" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="H10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>40</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="10">
+      <c r="D11" s="4"/>
+      <c r="E11" s="5">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="9">
         <v>45264</v>
       </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="12">
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
         <v>5000</v>
       </c>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="K11" s="8"/>
+      <c r="M11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4">
         <v>500</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="10">
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="9">
         <v>45264</v>
       </c>
-      <c r="I12" s="12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="12">
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
         <v>6000</v>
       </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="K12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9">
+        <v>45282</v>
+      </c>
+      <c r="O12" s="48">
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <v>300</v>
+      </c>
+      <c r="Q12" s="48"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4">
         <v>1500</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="10">
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="9">
         <v>45264</v>
       </c>
-      <c r="I13" s="12">
-        <v>0</v>
-      </c>
-      <c r="J13" s="12">
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
         <v>8000</v>
       </c>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="K13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="18">
+        <v>0</v>
+      </c>
+      <c r="P13" s="18">
+        <v>300</v>
+      </c>
+      <c r="Q13" s="18">
+        <f>O13-P13</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
         <v>1040</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="20">
+      <c r="E14" s="5">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="18">
         <f>SUM(I11:I13)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="18">
         <f>SUM(J11:J13)</f>
         <v>19000</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="19">
         <f>I14-J14</f>
         <v>-19000</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="Q14" s="39"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="42">
         <v>45275</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>1250</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="42"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="36"/>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14">
         <v>1250</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="41" t="s">
+      <c r="E16" s="5">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19" t="s">
+      <c r="H16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="Q16" s="39"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="47">
         <v>45275</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>1000</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="10">
+      <c r="D17" s="4"/>
+      <c r="E17" s="5">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="9">
         <v>45264</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="21">
         <v>6000</v>
       </c>
-      <c r="J17" s="12">
-        <v>0</v>
-      </c>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="22" t="s">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4">
         <v>1000</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="20">
+      <c r="E18" s="5">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="18">
         <v>6000</v>
       </c>
-      <c r="J18" s="20">
-        <v>0</v>
-      </c>
-      <c r="K18" s="21">
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
         <f>I18-J18</f>
         <v>6000</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="Q18" s="38"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="42">
         <v>45280</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <v>6000</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="42"/>
-    </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="5">
+        <v>5</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="36"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <v>1260</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="43" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="5">
         <v>6</v>
       </c>
-      <c r="H20" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15" t="s">
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14">
         <v>7260</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="10">
+      <c r="E21" s="5">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="9">
         <v>45264</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <v>8000</v>
       </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
+      <c r="J21" s="11"/>
+      <c r="K21" s="8"/>
+      <c r="Q21" s="39"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="44">
         <v>45282</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>700</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="10">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="9">
         <v>45268</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>3000</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="4" t="s">
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="O22" s="39"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+      <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>4200</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="17">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5">
+        <v>8</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="15">
         <f>SUM(I21:I22)</f>
         <v>11000</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="15">
         <f>SUM(J21:J22)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="15">
         <f>I23-J23</f>
         <v>11000</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="4" t="s">
+      <c r="O23" s="39"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
+      <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4">
         <v>5000</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="4" t="s">
+      <c r="E24" s="5">
+        <v>9</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="36"/>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4">
         <v>300</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="43" t="s">
+      <c r="E25" s="5">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="19" t="s">
+      <c r="H25" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="42">
         <v>45282</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <v>4000</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30">
+      <c r="D26" s="14"/>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="49">
+        <v>45266</v>
+      </c>
+      <c r="I26" s="25">
         <v>2000</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="29"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
-      <c r="B27" s="15" t="s">
+      <c r="J26" s="25"/>
+      <c r="K26" s="24"/>
+      <c r="O26" s="38"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="43"/>
+      <c r="B27" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16">
+      <c r="C27" s="14"/>
+      <c r="D27" s="14">
         <v>4000</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30">
+      <c r="E27" s="5">
+        <v>5</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="49">
+        <v>45275</v>
+      </c>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25">
         <v>1000</v>
       </c>
-      <c r="K27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30">
+      <c r="K27" s="24"/>
+      <c r="Q27" s="38"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="49">
+        <v>45280</v>
+      </c>
+      <c r="I28" s="25">
         <v>6000</v>
       </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30">
+      <c r="J28" s="25"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="49">
+        <v>45282</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25">
         <v>4000</v>
       </c>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="35">
+      <c r="K29" s="24"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="29">
         <f>SUM(I26:I29)</f>
         <v>8000</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="29">
         <f>SUM(J26:J29)</f>
         <v>5000</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="19">
         <f>I30-J30</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="G32" s="43" t="s">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="G32" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H32" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="38" t="s">
+      <c r="H32" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="38" t="s">
+      <c r="J32" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="38" t="s">
+      <c r="K32" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="33" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G33" s="41"/>
-      <c r="H33" s="10">
+      <c r="G33" s="35"/>
+      <c r="H33" s="9">
         <v>45266</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30">
+      <c r="I33" s="25"/>
+      <c r="J33" s="25">
         <v>1040</v>
       </c>
-      <c r="K33" s="29"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G34" s="41"/>
-      <c r="H34" s="10">
+      <c r="G34" s="35"/>
+      <c r="H34" s="9">
         <v>45268</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="25">
         <v>4200</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="13"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G35" s="41"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="21">
+      <c r="G35" s="35"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="19">
         <f>SUM(I34)</f>
         <v>4200</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="19">
         <f>SUM(J33:J34)</f>
         <v>1040</v>
       </c>
-      <c r="K35" s="21">
+      <c r="K35" s="19">
         <f>I35-J35</f>
         <v>3160</v>
       </c>
     </row>
     <row r="36" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G36" s="42"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="7:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="G37" s="43" t="s">
+      <c r="G37" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="I37" s="38" t="s">
+      <c r="H37" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J37" s="38" t="s">
+      <c r="J37" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K37" s="38" t="s">
+      <c r="K37" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="38" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G38" s="41"/>
-      <c r="H38" s="10">
+      <c r="G38" s="35"/>
+      <c r="H38" s="9">
         <v>45280</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30">
+      <c r="I38" s="25"/>
+      <c r="J38" s="25">
         <v>7260</v>
       </c>
-      <c r="K38" s="9"/>
+      <c r="K38" s="8"/>
     </row>
     <row r="39" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G39" s="41"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="17">
-        <v>0</v>
-      </c>
-      <c r="J39" s="5">
+      <c r="G39" s="35"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="4">
         <v>7260</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="15">
         <f>I39-J39</f>
         <v>-7260</v>
       </c>
     </row>
     <row r="40" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G40" s="42"/>
+      <c r="G40" s="36"/>
     </row>
     <row r="41" spans="7:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="G41" s="43" t="s">
+      <c r="G41" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="H41" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="I41" s="40" t="s">
+      <c r="H41" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J41" s="38" t="s">
+      <c r="J41" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="38" t="s">
+      <c r="K41" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="42" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G42" s="41"/>
-      <c r="H42" s="10">
+      <c r="G42" s="35"/>
+      <c r="H42" s="9">
         <v>45275</v>
       </c>
-      <c r="I42" s="12">
-        <v>0</v>
-      </c>
-      <c r="J42" s="12">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
         <v>1250</v>
       </c>
-      <c r="K42" s="9"/>
+      <c r="K42" s="8"/>
     </row>
     <row r="43" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G43" s="41"/>
-      <c r="H43" s="10">
+      <c r="G43" s="35"/>
+      <c r="H43" s="9">
         <v>45282</v>
       </c>
-      <c r="I43" s="12">
-        <v>0</v>
-      </c>
-      <c r="J43" s="12">
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11">
         <f>200*25</f>
         <v>5000</v>
       </c>
-      <c r="K43" s="9"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G44" s="41"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="17">
+      <c r="G44" s="35"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="15">
         <f>SUM(I42:I43)</f>
         <v>0</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="15">
         <f>SUM(J42:J43)</f>
         <v>6250</v>
       </c>
-      <c r="K44" s="17">
+      <c r="K44" s="15">
         <f>I44-J44</f>
         <v>-6250</v>
       </c>
     </row>
     <row r="45" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G45" s="42"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" spans="7:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="G46" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="38" t="s">
+      <c r="G46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J46" s="38" t="s">
+      <c r="J46" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="38" t="s">
+      <c r="K46" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="47" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G47" s="41"/>
-      <c r="H47" s="10">
-        <v>45282</v>
-      </c>
-      <c r="I47" s="12">
-        <v>3000</v>
-      </c>
-      <c r="J47" s="12">
-        <v>6000</v>
-      </c>
-      <c r="K47" s="9"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="9">
+        <v>45266</v>
+      </c>
+      <c r="I47" s="25">
+        <v>420</v>
+      </c>
+      <c r="J47" s="25">
+        <v>0</v>
+      </c>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G48" s="41"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="17">
-        <f>SUM(I47)</f>
-        <v>3000</v>
-      </c>
-      <c r="J48" s="17">
-        <f>SUM(J47)</f>
-        <v>6000</v>
-      </c>
-      <c r="K48" s="17">
-        <f>I48-J48</f>
-        <v>-3000</v>
+      <c r="G48" s="35"/>
+      <c r="H48" s="9">
+        <v>45280</v>
+      </c>
+      <c r="I48" s="25">
+        <v>1260</v>
+      </c>
+      <c r="J48" s="25">
+        <v>0</v>
+      </c>
+      <c r="K48" s="12"/>
+    </row>
+    <row r="49" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="41">
+        <f>SUM(I47:I48)</f>
+        <v>1680</v>
+      </c>
+      <c r="J49" s="41">
+        <f>SUM(J47:J48)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="41">
+        <f>I49-J49</f>
+        <v>1680</v>
       </c>
     </row>
   </sheetData>

--- a/1er_cuatrimestre/sist_contable/7_tp_final/Libro1.xlsx
+++ b/1er_cuatrimestre/sist_contable/7_tp_final/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOSITORIOS\repos_facu\3er_anho\1er_cuatrimestre\sist_contable\7_tp_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3268B600-8AF8-448C-81D8-3DE443367EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ED8A05-4122-4C4A-B871-4B2EF7404AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A27647EE-2D9A-4584-911B-0962B084004A}"/>
   </bookViews>
@@ -96,13 +96,13 @@
     <t>Saldo</t>
   </si>
   <si>
-    <t>cuenta</t>
-  </si>
-  <si>
     <t>IVA Soportado</t>
   </si>
   <si>
     <t>Intereses Pasivos</t>
+  </si>
+  <si>
+    <t>Cuenta</t>
   </si>
 </sst>
 </file>
@@ -264,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -353,6 +353,8 @@
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -371,8 +373,9 @@
     <xf numFmtId="16" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -688,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8E6860-0237-4D2E-900A-CBC3F787B7AE}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -715,7 +718,7 @@
     <col min="18" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,12 +731,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
+      <c r="E1" s="50" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="47">
+      <c r="A2" s="49">
         <v>45264</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -762,24 +765,24 @@
       <c r="K2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="17" t="s">
+      <c r="M2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -802,20 +805,20 @@
         <v>0</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="M3" s="35"/>
       <c r="N3" s="9">
-        <v>45268</v>
+        <v>45266</v>
       </c>
       <c r="O3" s="25">
-        <v>40</v>
-      </c>
-      <c r="P3" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="48"/>
+        <v>420</v>
+      </c>
+      <c r="P3" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="24"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -838,21 +841,20 @@
         <v>1250</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="29">
-        <v>40</v>
-      </c>
-      <c r="P4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18">
-        <f>O4-P4</f>
-        <v>40</v>
-      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="9">
+        <v>45280</v>
+      </c>
+      <c r="O4" s="25">
+        <v>1260</v>
+      </c>
+      <c r="P4" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -875,10 +877,23 @@
         <v>500</v>
       </c>
       <c r="K5" s="12"/>
-      <c r="O5" s="38"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="42">
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="41">
+        <f>SUM(O3:O4)</f>
+        <v>1680</v>
+      </c>
+      <c r="P5" s="41">
+        <f>SUM(P3:P4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="41">
+        <f>O5-P5</f>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="44">
         <v>45266</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -903,24 +918,9 @@
         <v>0</v>
       </c>
       <c r="K6" s="12"/>
-      <c r="M6" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
       <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
@@ -941,20 +941,24 @@
         <v>700</v>
       </c>
       <c r="K7" s="12"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9">
-        <v>45275</v>
-      </c>
-      <c r="O7" s="25">
-        <v>1000</v>
-      </c>
-      <c r="P7" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8"/>
+      <c r="M7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
@@ -982,18 +986,18 @@
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="9">
-        <v>45282</v>
+        <v>45268</v>
       </c>
       <c r="O8" s="25">
-        <v>4000</v>
-      </c>
-      <c r="P8" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="P8" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="13" t="s">
         <v>5</v>
       </c>
@@ -1007,20 +1011,19 @@
       <c r="F9" s="5"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="19">
-        <f>SUM(O7:O8)</f>
-        <v>5000</v>
+      <c r="O9" s="29">
+        <v>40</v>
       </c>
       <c r="P9" s="18">
         <v>0</v>
       </c>
       <c r="Q9" s="18">
         <f>O9-P9</f>
-        <v>5000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="47">
+      <c r="A10" s="49">
         <v>45268</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1049,10 +1052,10 @@
       <c r="K10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="39"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1075,8 +1078,8 @@
         <v>5000</v>
       </c>
       <c r="K11" s="8"/>
-      <c r="M11" s="23" t="s">
-        <v>17</v>
+      <c r="M11" s="26" t="s">
+        <v>13</v>
       </c>
       <c r="N11" s="22" t="s">
         <v>0</v>
@@ -1092,7 +1095,7 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1117,18 +1120,18 @@
       <c r="K12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="9">
-        <v>45282</v>
-      </c>
-      <c r="O12" s="48">
-        <v>0</v>
+        <v>45275</v>
+      </c>
+      <c r="O12" s="25">
+        <v>1000</v>
       </c>
       <c r="P12" s="25">
-        <v>300</v>
-      </c>
-      <c r="Q12" s="48"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="3" t="s">
         <v>5</v>
       </c>
@@ -1152,20 +1155,19 @@
       </c>
       <c r="K13" s="8"/>
       <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="18">
-        <v>0</v>
-      </c>
-      <c r="P13" s="18">
-        <v>300</v>
-      </c>
-      <c r="Q13" s="18">
-        <f>O13-P13</f>
-        <v>-300</v>
-      </c>
+      <c r="N13" s="9">
+        <v>45282</v>
+      </c>
+      <c r="O13" s="25">
+        <v>4000</v>
+      </c>
+      <c r="P13" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1191,10 +1193,22 @@
         <f>I14-J14</f>
         <v>-19000</v>
       </c>
-      <c r="Q14" s="39"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="19">
+        <f>SUM(O12:O13)</f>
+        <v>5000</v>
+      </c>
+      <c r="P14" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18">
+        <f>O14-P14</f>
+        <v>5000</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="42">
+      <c r="A15" s="44">
         <v>45275</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -1212,7 +1226,7 @@
       <c r="O15" s="39"/>
     </row>
     <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="13" t="s">
         <v>15</v>
       </c>
@@ -1239,10 +1253,24 @@
       <c r="K16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="39"/>
+      <c r="M16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="P16" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="47">
+      <c r="A17" s="49">
         <v>45275</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -1267,10 +1295,20 @@
         <v>0</v>
       </c>
       <c r="K17" s="8"/>
-      <c r="O17" s="38"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9">
+        <v>45282</v>
+      </c>
+      <c r="O17" s="42">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="42"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="20" t="s">
         <v>8</v>
       </c>
@@ -1294,10 +1332,21 @@
         <f>I18-J18</f>
         <v>6000</v>
       </c>
-      <c r="Q18" s="38"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18">
+        <v>300</v>
+      </c>
+      <c r="Q18" s="18">
+        <f>O18-P18</f>
+        <v>-300</v>
+      </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="42">
+      <c r="A19" s="44">
         <v>45280</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -1312,10 +1361,9 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="36"/>
-      <c r="O19" s="39"/>
     </row>
     <row r="20" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
@@ -1342,10 +1390,10 @@
       <c r="K20" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="39"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="13" t="s">
         <v>14</v>
       </c>
@@ -1369,7 +1417,7 @@
       <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="44">
+      <c r="A22" s="46">
         <v>45282</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1395,7 +1443,7 @@
       <c r="O22" s="39"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="45"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
@@ -1424,7 +1472,7 @@
       <c r="O23" s="39"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1488,7 @@
       <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:17" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
@@ -1470,7 +1518,7 @@
       <c r="Q25" s="39"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="42">
+      <c r="A26" s="44">
         <v>45282</v>
       </c>
       <c r="B26" s="13" t="s">
@@ -1485,7 +1533,7 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="23"/>
-      <c r="H26" s="49">
+      <c r="H26" s="43">
         <v>45266</v>
       </c>
       <c r="I26" s="25">
@@ -1496,7 +1544,7 @@
       <c r="O26" s="38"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="13" t="s">
         <v>8</v>
       </c>
@@ -1509,7 +1557,7 @@
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="26"/>
-      <c r="H27" s="49">
+      <c r="H27" s="43">
         <v>45275</v>
       </c>
       <c r="I27" s="25"/>
@@ -1523,7 +1571,7 @@
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="49">
+      <c r="H28" s="43">
         <v>45280</v>
       </c>
       <c r="I28" s="25">
@@ -1536,7 +1584,7 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="49">
+      <c r="H29" s="43">
         <v>45282</v>
       </c>
       <c r="I29" s="25"/>
@@ -1733,65 +1781,6 @@
     </row>
     <row r="45" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G45" s="36"/>
-    </row>
-    <row r="46" spans="7:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="G46" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="H46" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="J46" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G47" s="35"/>
-      <c r="H47" s="9">
-        <v>45266</v>
-      </c>
-      <c r="I47" s="25">
-        <v>420</v>
-      </c>
-      <c r="J47" s="25">
-        <v>0</v>
-      </c>
-      <c r="K47" s="24"/>
-    </row>
-    <row r="48" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G48" s="35"/>
-      <c r="H48" s="9">
-        <v>45280</v>
-      </c>
-      <c r="I48" s="25">
-        <v>1260</v>
-      </c>
-      <c r="J48" s="25">
-        <v>0</v>
-      </c>
-      <c r="K48" s="12"/>
-    </row>
-    <row r="49" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="41">
-        <f>SUM(I47:I48)</f>
-        <v>1680</v>
-      </c>
-      <c r="J49" s="41">
-        <f>SUM(J47:J48)</f>
-        <v>0</v>
-      </c>
-      <c r="K49" s="41">
-        <f>I49-J49</f>
-        <v>1680</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
